--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R3d4e5908f5d74f85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Red9ebe19486a4f09"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Red9ebe19486a4f09"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rca5185caed0a4c9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rca5185caed0a4c9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R7b5ffff0977d445f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R7b5ffff0977d445f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2d82135b78764f37"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2d82135b78764f37"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8d87d71b192d4eaa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8d87d71b192d4eaa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R40aa16f9c02848c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R40aa16f9c02848c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R1463f48e668f45c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R1463f48e668f45c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rbb7e7aaf08d34548"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rbb7e7aaf08d34548"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2a9909643ce04bca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2a9909643ce04bca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R24c8d80498314f63"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R24c8d80498314f63"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9a895898e3dd4a95"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,27 +30,27 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9a895898e3dd4a95"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rc30dc2529d374bc0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,27 +30,27 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/036_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rc30dc2529d374bc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Red049380609b4170"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
